--- a/SOFT_FOR_ACCESS/2_LLC_import.xlsx
+++ b/SOFT_FOR_ACCESS/2_LLC_import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADCD8E-98CF-4BEE-A914-65FEF9CFCAB1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC27D64-861F-48C9-8448-5A3BB03E202F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -400,17 +400,8 @@
       <c r="L1">
         <v>1</v>
       </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -447,17 +438,8 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -493,62 +475,6 @@
       </c>
       <c r="L3">
         <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
